--- a/xlsx/佛羅里達州_intext.xlsx
+++ b/xlsx/佛羅里達州_intext.xlsx
@@ -50,10 +50,10 @@
     <t>美国各州昵称列表</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E8%AF%AD</t>
-  </si>
-  <si>
-    <t>美语</t>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%AF%AD</t>
+  </si>
+  <si>
+    <t>英语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%84%E5%B7%9E%E9%A6%96%E5%BA%9C%E5%88%97%E8%A1%A8</t>
@@ -2423,7 +2423,7 @@
         <v>12</v>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H6" t="s">
         <v>4</v>
@@ -2916,7 +2916,7 @@
         <v>46</v>
       </c>
       <c r="G23" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H23" t="s">
         <v>4</v>
